--- a/biology/Histoire de la zoologie et de la botanique/Alvin_Seale/Alvin_Seale.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alvin_Seale/Alvin_Seale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alvin Seale est un ichtyologiste américain, né le 8 juillet 1871 à Indiana et mort le 28 juillet 1958 à Corallitos en Californie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il grandit dans la ferme parentale, des parents quakers. Il fait son premier voyage dans les Everglades en 1884. Son second voyage le conduit de l’Indiana à la Californie pour y étudier les poissons auprès de David Starr Jordan (1851-1931). Il est un étudiant peu assidu : au lieu d’aller suivre ses cours, il préfère aller sur le terrain.
 En 1896, Jordan le choisit avec Norman Bishop Scofield (1869-1958) pour une mission à l’embouchure du fleuve Mackenzie. En 1898, un de ses condisciples l’entraîne à participer à la ruée vers l’or dans le Klondike mais Seale se consacre uniquement à l’étude de la faune. À la rentrée 1899, Seale abandonne à nouveau ses études pour devenir naturaliste de terrain pour le compte du muséum Bishop à Honolulu. Il fait sa première étude zoologique en 1900 qui le conduit à Guam, à Manille, à Hong Kong, à Shanghai et au Japon. Jusqu’en 1903, il fait des récoltes en Polynésie.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Albert W. Herre (1959). Alvin Seale, 1871-1958, Copeia, 1959 (1) : 85-86.  (ISSN 0045-8511)</t>
         </is>
